--- a/exercise/hfc_enumerators.xlsx
+++ b/exercise/hfc_enumerators.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4350" activeTab="4"/>
   </bookViews>
@@ -18,12 +13,12 @@
     <sheet name="refusal" sheetId="8" r:id="rId4"/>
     <sheet name="duration" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="24">
   <si>
     <t>Enumerator</t>
   </si>
@@ -100,8 +95,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,18 +153,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -180,11 +175,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -194,11 +189,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -208,11 +203,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -222,11 +217,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -236,11 +231,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -250,11 +245,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -264,11 +259,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -278,11 +273,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -292,11 +287,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -306,11 +301,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -320,11 +315,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -334,11 +329,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -348,11 +343,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -362,11 +357,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -376,11 +371,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -390,11 +385,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -404,11 +399,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -418,11 +413,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -432,11 +427,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -446,11 +441,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -460,11 +455,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -474,11 +469,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -488,11 +483,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -502,11 +497,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -516,11 +511,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -530,11 +525,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -544,11 +539,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -558,11 +553,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -572,11 +567,11 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <i val="false"/>
       </font>
       <border>
         <bottom style="thin">
-          <color auto="1"/>
+          <color auto="true"/>
         </bottom>
       </border>
     </dxf>
@@ -594,14 +589,6 @@
       <color rgb="FFF8696B"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -867,21 +854,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="true" customWidth="true"/>
+    <col min="4" max="9" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="10" max="11" width="10.5703125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="true">
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
@@ -903,7 +890,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="true">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -925,7 +912,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="true">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -958,6 +945,1301 @@
       </c>
       <c r="K3" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0">
+        <v>93</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.14946237206459045</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.14946237206459045</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>100.30931854248047</v>
+      </c>
+      <c r="K4" s="0">
+        <v>100.30931854248047</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0">
+        <v>68</v>
+      </c>
+      <c r="C5" s="0">
+        <v>68</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.13970588147640228</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.13970588147640228</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>251.95613098144531</v>
+      </c>
+      <c r="K5" s="0">
+        <v>251.95613098144531</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0">
+        <v>83</v>
+      </c>
+      <c r="C6" s="0">
+        <v>83</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.12008032202720642</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.12008032202720642</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.00045641258475370705</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.00045641258475370705</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>93.167068481445313</v>
+      </c>
+      <c r="K6" s="0">
+        <v>93.167068481445313</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0">
+        <v>83</v>
+      </c>
+      <c r="C7" s="0">
+        <v>83</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.14417670667171478</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.14417670667171478</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1185.982666015625</v>
+      </c>
+      <c r="K7" s="0">
+        <v>1185.982666015625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0">
+        <v>79</v>
+      </c>
+      <c r="C8" s="0">
+        <v>79</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.14303797483444214</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.14303797483444214</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0.00049236830091103911</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0.00049236830091103911</v>
+      </c>
+      <c r="J8" s="0">
+        <v>431.74197387695312</v>
+      </c>
+      <c r="K8" s="0">
+        <v>431.74197387695312</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0">
+        <v>24</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.15555556118488312</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.15555556118488312</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0">
+        <v>387.17153930664062</v>
+      </c>
+      <c r="K9" s="0">
+        <v>387.17153930664062</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0">
+        <v>22</v>
+      </c>
+      <c r="C10" s="0">
+        <v>22</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.15000000596046448</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.15000000596046448</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>943.264404296875</v>
+      </c>
+      <c r="K10" s="0">
+        <v>943.264404296875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0">
+        <v>54</v>
+      </c>
+      <c r="C11" s="0">
+        <v>54</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.15740740299224854</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.15740740299224854</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.0058608059771358967</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0.0058608059771358967</v>
+      </c>
+      <c r="J11" s="0">
+        <v>64.165122985839844</v>
+      </c>
+      <c r="K11" s="0">
+        <v>64.165122985839844</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0">
+        <v>78</v>
+      </c>
+      <c r="C12" s="0">
+        <v>78</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.15256410837173462</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.15256410837173462</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.0020171457435935736</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.0020171457435935736</v>
+      </c>
+      <c r="J12" s="0">
+        <v>1723.4061279296875</v>
+      </c>
+      <c r="K12" s="0">
+        <v>1723.4061279296875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>22</v>
+      </c>
+      <c r="B13" s="0">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0">
+        <v>80</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.13375000655651093</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.13375000655651093</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.00048100049025379121</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.00048100049025379121</v>
+      </c>
+      <c r="J13" s="0">
+        <v>221.09979248046875</v>
+      </c>
+      <c r="K13" s="0">
+        <v>221.09979248046875</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0">
+        <v>92</v>
+      </c>
+      <c r="C14" s="0">
+        <v>92</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.20434781908988953</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.20434781908988953</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00091074680676683784</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.00091074680676683784</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>70.543838500976563</v>
+      </c>
+      <c r="K14" s="0">
+        <v>70.543838500976563</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0">
+        <v>92</v>
+      </c>
+      <c r="C15" s="0">
+        <v>92</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.14275361597537994</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.14275361597537994</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.0004226542660035193</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0004226542660035193</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.0004226542660035193</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0.0004226542660035193</v>
+      </c>
+      <c r="J15" s="0">
+        <v>817.76324462890625</v>
+      </c>
+      <c r="K15" s="0">
+        <v>817.76324462890625</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>25</v>
+      </c>
+      <c r="B16" s="0">
+        <v>84</v>
+      </c>
+      <c r="C16" s="0">
+        <v>84</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.13452380895614624</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.13452380895614624</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>596.40057373046875</v>
+      </c>
+      <c r="K16" s="0">
+        <v>596.40057373046875</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0">
+        <v>58</v>
+      </c>
+      <c r="C17" s="0">
+        <v>58</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.15689654648303986</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.15689654648303986</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>55.970401763916016</v>
+      </c>
+      <c r="K17" s="0">
+        <v>55.970401763916016</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>28</v>
+      </c>
+      <c r="B18" s="0">
+        <v>82</v>
+      </c>
+      <c r="C18" s="0">
+        <v>82</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.11504065245389938</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.11504065245389938</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.0009186954703181982</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.0009186954703181982</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.0004593477351590991</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0.0004593477351590991</v>
+      </c>
+      <c r="J18" s="0">
+        <v>903.66015625</v>
+      </c>
+      <c r="K18" s="0">
+        <v>903.66015625</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>29</v>
+      </c>
+      <c r="B19" s="0">
+        <v>67</v>
+      </c>
+      <c r="C19" s="0">
+        <v>67</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.1228855699300766</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.1228855699300766</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.00056721497094258666</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0.00056721497094258666</v>
+      </c>
+      <c r="J19" s="0">
+        <v>343.7955322265625</v>
+      </c>
+      <c r="K19" s="0">
+        <v>343.7955322265625</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>30</v>
+      </c>
+      <c r="B20" s="0">
+        <v>79</v>
+      </c>
+      <c r="C20" s="0">
+        <v>79</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.12151898443698883</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.12151898443698883</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0">
+        <v>1072.21875</v>
+      </c>
+      <c r="K20" s="0">
+        <v>1072.21875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0">
+        <v>91</v>
+      </c>
+      <c r="C21" s="0">
+        <v>91</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.12380952388048172</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.12380952388048172</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0">
+        <v>150.76263427734375</v>
+      </c>
+      <c r="K21" s="0">
+        <v>150.76263427734375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>33</v>
+      </c>
+      <c r="B22" s="0">
+        <v>55</v>
+      </c>
+      <c r="C22" s="0">
+        <v>55</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.13575758039951324</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.13575758039951324</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.00070126226637512445</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0.00070126226637512445</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0">
+        <v>479.41696166992187</v>
+      </c>
+      <c r="K22" s="0">
+        <v>479.41696166992187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0">
+        <v>87</v>
+      </c>
+      <c r="C23" s="0">
+        <v>87</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.14521072804927826</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.14521072804927826</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0">
+        <v>157.00421142578125</v>
+      </c>
+      <c r="K23" s="0">
+        <v>157.00421142578125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>35</v>
+      </c>
+      <c r="B24" s="0">
+        <v>68</v>
+      </c>
+      <c r="C24" s="0">
+        <v>68</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.15392157435417175</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.15392157435417175</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.00057937426026910543</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.00057937426026910543</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0">
+        <v>136.29902648925781</v>
+      </c>
+      <c r="K24" s="0">
+        <v>136.29902648925781</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0">
+        <v>82</v>
+      </c>
+      <c r="C25" s="0">
+        <v>82</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.1227642297744751</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.1227642297744751</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0">
+        <v>292.30914306640625</v>
+      </c>
+      <c r="K25" s="0">
+        <v>292.30914306640625</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>37</v>
+      </c>
+      <c r="B26" s="0">
+        <v>76</v>
+      </c>
+      <c r="C26" s="0">
+        <v>76</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.11798245459794998</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.11798245459794998</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.026852311566472054</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0.026852311566472054</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.00049726502038538456</v>
+      </c>
+      <c r="I26" s="0">
+        <v>0.00049726502038538456</v>
+      </c>
+      <c r="J26" s="0">
+        <v>789.1473388671875</v>
+      </c>
+      <c r="K26" s="0">
+        <v>789.1473388671875</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>38</v>
+      </c>
+      <c r="B27" s="0">
+        <v>62</v>
+      </c>
+      <c r="C27" s="0">
+        <v>62</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.13924731314182281</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.13924731314182281</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.006870705634355545</v>
+      </c>
+      <c r="G27" s="0">
+        <v>0.006870705634355545</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0">
+        <v>3338.1806640625</v>
+      </c>
+      <c r="K27" s="0">
+        <v>3338.1806640625</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>39</v>
+      </c>
+      <c r="B28" s="0">
+        <v>62</v>
+      </c>
+      <c r="C28" s="0">
+        <v>62</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.16290321946144104</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0.16290321946144104</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.0019267823081463575</v>
+      </c>
+      <c r="G28" s="0">
+        <v>0.0019267823081463575</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0">
+        <v>2450.714111328125</v>
+      </c>
+      <c r="K28" s="0">
+        <v>2450.714111328125</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>40</v>
+      </c>
+      <c r="B29" s="0">
+        <v>64</v>
+      </c>
+      <c r="C29" s="0">
+        <v>64</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.15156249701976776</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.15156249701976776</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.0018416206585243344</v>
+      </c>
+      <c r="G29" s="0">
+        <v>0.0018416206585243344</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0</v>
+      </c>
+      <c r="I29" s="0">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0">
+        <v>70.351821899414063</v>
+      </c>
+      <c r="K29" s="0">
+        <v>70.351821899414063</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>41</v>
+      </c>
+      <c r="B30" s="0">
+        <v>70</v>
+      </c>
+      <c r="C30" s="0">
+        <v>70</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.1428571492433548</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.1428571492433548</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.002222222276031971</v>
+      </c>
+      <c r="G30" s="0">
+        <v>0.002222222276031971</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0</v>
+      </c>
+      <c r="I30" s="0">
+        <v>0</v>
+      </c>
+      <c r="J30" s="0">
+        <v>151.13191223144531</v>
+      </c>
+      <c r="K30" s="0">
+        <v>151.13191223144531</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>42</v>
+      </c>
+      <c r="B31" s="0">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.1666666716337204</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.1666666716337204</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0">
+        <v>63.083332061767578</v>
+      </c>
+      <c r="K31" s="0">
+        <v>63.083332061767578</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>43</v>
+      </c>
+      <c r="B32" s="0">
+        <v>65</v>
+      </c>
+      <c r="C32" s="0">
+        <v>65</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.12205128371715546</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0.12205128371715546</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.0017523363931104541</v>
+      </c>
+      <c r="G32" s="0">
+        <v>0.0017523363931104541</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0.00058411213103681803</v>
+      </c>
+      <c r="I32" s="0">
+        <v>0.00058411213103681803</v>
+      </c>
+      <c r="J32" s="0">
+        <v>3475.75732421875</v>
+      </c>
+      <c r="K32" s="0">
+        <v>3475.75732421875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>44</v>
+      </c>
+      <c r="B33" s="0">
+        <v>70</v>
+      </c>
+      <c r="C33" s="0">
+        <v>70</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.1428571492433548</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.1428571492433548</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0">
+        <v>0</v>
+      </c>
+      <c r="I33" s="0">
+        <v>0</v>
+      </c>
+      <c r="J33" s="0">
+        <v>83.5047607421875</v>
+      </c>
+      <c r="K33" s="0">
+        <v>83.5047607421875</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>46</v>
+      </c>
+      <c r="B34" s="0">
+        <v>17</v>
+      </c>
+      <c r="C34" s="0">
+        <v>17</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.15686275064945221</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0.15686275064945221</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0">
+        <v>0</v>
+      </c>
+      <c r="I34" s="0">
+        <v>0</v>
+      </c>
+      <c r="J34" s="0">
+        <v>82.789215087890625</v>
+      </c>
+      <c r="K34" s="0">
+        <v>82.789215087890625</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>47</v>
+      </c>
+      <c r="B35" s="0">
+        <v>34</v>
+      </c>
+      <c r="C35" s="0">
+        <v>34</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.14901961386203766</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.14901961386203766</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.0011520737316459417</v>
+      </c>
+      <c r="G35" s="0">
+        <v>0.0011520737316459417</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0</v>
+      </c>
+      <c r="I35" s="0">
+        <v>0</v>
+      </c>
+      <c r="J35" s="0">
+        <v>604.82061767578125</v>
+      </c>
+      <c r="K35" s="0">
+        <v>604.82061767578125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>48</v>
+      </c>
+      <c r="B36" s="0">
+        <v>71</v>
+      </c>
+      <c r="C36" s="0">
+        <v>71</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.12863849103450775</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.12863849103450775</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.0016163793625310063</v>
+      </c>
+      <c r="G36" s="0">
+        <v>0.0016163793625310063</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0</v>
+      </c>
+      <c r="I36" s="0">
+        <v>0</v>
+      </c>
+      <c r="J36" s="0">
+        <v>3287.52294921875</v>
+      </c>
+      <c r="K36" s="0">
+        <v>3287.52294921875</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>49</v>
+      </c>
+      <c r="B37" s="0">
+        <v>73</v>
+      </c>
+      <c r="C37" s="0">
+        <v>73</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0.11095890402793884</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.11095890402793884</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.0010272213257849216</v>
+      </c>
+      <c r="G37" s="0">
+        <v>0.0010272213257849216</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0</v>
+      </c>
+      <c r="I37" s="0">
+        <v>0</v>
+      </c>
+      <c r="J37" s="0">
+        <v>115440.1484375</v>
+      </c>
+      <c r="K37" s="0">
+        <v>115440.1484375</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>50</v>
+      </c>
+      <c r="B38" s="0">
+        <v>46</v>
+      </c>
+      <c r="C38" s="0">
+        <v>46</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0.15362319350242615</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.15362319350242615</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0.00085616437718272209</v>
+      </c>
+      <c r="G38" s="0">
+        <v>0.00085616437718272209</v>
+      </c>
+      <c r="H38" s="0">
+        <v>0.00085616437718272209</v>
+      </c>
+      <c r="I38" s="0">
+        <v>0.00085616437718272209</v>
+      </c>
+      <c r="J38" s="0">
+        <v>259.24566650390625</v>
+      </c>
+      <c r="K38" s="0">
+        <v>259.24566650390625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>51</v>
+      </c>
+      <c r="B39" s="0">
+        <v>42</v>
+      </c>
+      <c r="C39" s="0">
+        <v>42</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0.16984127461910248</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0.16984127461910248</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0</v>
+      </c>
+      <c r="I39" s="0">
+        <v>0</v>
+      </c>
+      <c r="J39" s="0">
+        <v>620.60870361328125</v>
+      </c>
+      <c r="K39" s="0">
+        <v>620.60870361328125</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>52</v>
+      </c>
+      <c r="B40" s="0">
+        <v>40</v>
+      </c>
+      <c r="C40" s="0">
+        <v>40</v>
+      </c>
+      <c r="D40" s="0">
+        <v>0.14166666567325592</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0.14166666567325592</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0</v>
+      </c>
+      <c r="I40" s="0">
+        <v>0</v>
+      </c>
+      <c r="J40" s="0">
+        <v>946.7296142578125</v>
+      </c>
+      <c r="K40" s="0">
+        <v>946.7296142578125</v>
       </c>
     </row>
   </sheetData>
@@ -983,23 +2265,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="11.28515625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="8" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="11.5703125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="true">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1014,6 +2296,635 @@
       </c>
       <c r="E1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.13978494703769684</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.13978494703769684</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.029411764815449715</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.029411764815449715</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.036144576966762543</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.036144576966762543</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.048192769289016724</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.048192769289016724</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.012658228166401386</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.012658228166401386</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.045454546809196472</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.045454546809196472</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.0555555559694767</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.0555555559694767</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.05128205195069313</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.05128205195069313</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.037500001490116119</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.037500001490116119</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.010869565419852734</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.010869565419852734</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.024390242993831635</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.024390242993831635</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.014925372786819935</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.014925372786819935</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.012658228166401386</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.012658228166401386</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>31</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.032967034727334976</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.032967034727334976</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.018181817606091499</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0.018181817606091499</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.01149425283074379</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0.01149425283074379</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>35</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.19117647409439087</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.19117647409439087</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>36</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.024390242993831635</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0.024390242993831635</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.039473682641983032</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0.039473682641983032</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.032258063554763794</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0.032258063554763794</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>39</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.032258063554763794</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0.032258063554763794</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>41</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>42</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>43</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.076923079788684845</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0.076923079788684845</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>44</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>46</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0.058823529630899429</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0.058823529630899429</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>47</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>48</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0.056338027119636536</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0.056338027119636536</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>49</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.013698630034923553</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.013698630034923553</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>50</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0.043478261679410934</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0.043478261679410934</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>51</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0.0476190485060215</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0.0476190485060215</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>52</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0.02500000037252903</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0.02500000037252903</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0.02500000037252903</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.02500000037252903</v>
       </c>
     </row>
   </sheetData>
@@ -1043,22 +2954,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="E38" sqref="A2:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="10" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="17.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="true">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1073,6 +2984,635 @@
       </c>
       <c r="E1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.02857142873108387</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.012195121496915817</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>31</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.018181817606091499</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>35</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.014705882407724857</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>36</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.71052628755569458</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>39</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>41</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.03125</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>42</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>43</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.015384615398943424</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>44</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>46</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>47</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.029411764815449715</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>48</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>49</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>50</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0.021739130839705467</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>51</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>52</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1102,22 +3642,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="E38" sqref="A2:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="10" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="17.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="true">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1132,6 +3672,635 @@
       </c>
       <c r="E1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.012658228166401386</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.14814814925193787</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.05128205195069313</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.012500000186264515</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.012195121496915817</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.014925372786819935</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>31</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>35</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>36</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.01315789483487606</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>39</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>41</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>42</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>43</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.015384615398943424</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>44</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>46</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>47</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>48</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>49</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>50</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.021739130839705467</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>51</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>52</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1161,20 +4330,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="1505" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="true" customWidth="true"/>
+    <col min="2" max="1505" width="10" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="true">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1183,6 +4352,413 @@
       </c>
       <c r="C1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0">
+        <v>45.1923828125</v>
+      </c>
+      <c r="C2" s="0">
+        <v>472.05996704101562</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0">
+        <v>46.480167388916016</v>
+      </c>
+      <c r="C3" s="0">
+        <v>462.7022705078125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0">
+        <v>45.777111053466797</v>
+      </c>
+      <c r="C4" s="0">
+        <v>486.18157958984375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0">
+        <v>41.97625732421875</v>
+      </c>
+      <c r="C5" s="0">
+        <v>478.48361206054687</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0">
+        <v>47.193660736083984</v>
+      </c>
+      <c r="C6" s="0">
+        <v>492.09515380859375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0">
+        <v>47.254810333251953</v>
+      </c>
+      <c r="C7" s="0">
+        <v>501.17312622070312</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0">
+        <v>42.028888702392578</v>
+      </c>
+      <c r="C8" s="0">
+        <v>471.77154541015625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0">
+        <v>42.8818359375</v>
+      </c>
+      <c r="C9" s="0">
+        <v>476.76040649414062</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0">
+        <v>47.055065155029297</v>
+      </c>
+      <c r="C10" s="0">
+        <v>447.98336791992187</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0">
+        <v>46.358535766601563</v>
+      </c>
+      <c r="C11" s="0">
+        <v>465.54605102539062</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0">
+        <v>46.501258850097656</v>
+      </c>
+      <c r="C12" s="0">
+        <v>491.4632568359375</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0">
+        <v>20.565954208374023</v>
+      </c>
+      <c r="C13" s="0">
+        <v>497.2425537109375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0">
+        <v>48.446918487548828</v>
+      </c>
+      <c r="C14" s="0">
+        <v>475.576416015625</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0">
+        <v>47.541793823242188</v>
+      </c>
+      <c r="C15" s="0">
+        <v>459.9443359375</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0">
+        <v>46.614627838134766</v>
+      </c>
+      <c r="C16" s="0">
+        <v>475.88739013671875</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0">
+        <v>50.867683410644531</v>
+      </c>
+      <c r="C17" s="0">
+        <v>491.2574462890625</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0">
+        <v>46.085292816162109</v>
+      </c>
+      <c r="C18" s="0">
+        <v>460.69677734375</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>31</v>
+      </c>
+      <c r="B19" s="0">
+        <v>46.971248626708984</v>
+      </c>
+      <c r="C19" s="0">
+        <v>481.38671875</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0">
+        <v>51.534023284912109</v>
+      </c>
+      <c r="C20" s="0">
+        <v>508.76748657226563</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0">
+        <v>50.887168884277344</v>
+      </c>
+      <c r="C21" s="0">
+        <v>471.6942138671875</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>35</v>
+      </c>
+      <c r="B22" s="0">
+        <v>50.649173736572266</v>
+      </c>
+      <c r="C22" s="0">
+        <v>504.11648559570312</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>36</v>
+      </c>
+      <c r="B23" s="0">
+        <v>50.248348236083984</v>
+      </c>
+      <c r="C23" s="0">
+        <v>460.94735717773437</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0">
+        <v>49.100627899169922</v>
+      </c>
+      <c r="C24" s="0">
+        <v>459.5054931640625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0">
+        <v>51.846748352050781</v>
+      </c>
+      <c r="C25" s="0">
+        <v>489.31259155273438</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>39</v>
+      </c>
+      <c r="B26" s="0">
+        <v>50.816745758056641</v>
+      </c>
+      <c r="C26" s="0">
+        <v>480.53192138671875</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0">
+        <v>50.122493743896484</v>
+      </c>
+      <c r="C27" s="0">
+        <v>448.051513671875</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>41</v>
+      </c>
+      <c r="B28" s="0">
+        <v>53.587444305419922</v>
+      </c>
+      <c r="C28" s="0">
+        <v>462.09902954101562</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>42</v>
+      </c>
+      <c r="B29" s="0">
+        <v>39.326946258544922</v>
+      </c>
+      <c r="C29" s="0">
+        <v>630.400146484375</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>43</v>
+      </c>
+      <c r="B30" s="0">
+        <v>54.400066375732422</v>
+      </c>
+      <c r="C30" s="0">
+        <v>356.8485107421875</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>44</v>
+      </c>
+      <c r="B31" s="0">
+        <v>54.163509368896484</v>
+      </c>
+      <c r="C31" s="0">
+        <v>494.62503051757812</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>46</v>
+      </c>
+      <c r="B32" s="0">
+        <v>48.096088409423828</v>
+      </c>
+      <c r="C32" s="0">
+        <v>451.04074096679687</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>47</v>
+      </c>
+      <c r="B33" s="0">
+        <v>54.716594696044922</v>
+      </c>
+      <c r="C33" s="0">
+        <v>492.51571655273437</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>48</v>
+      </c>
+      <c r="B34" s="0">
+        <v>55.251888275146484</v>
+      </c>
+      <c r="C34" s="0">
+        <v>477.85446166992187</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>49</v>
+      </c>
+      <c r="B35" s="0">
+        <v>55.246810913085938</v>
+      </c>
+      <c r="C35" s="0">
+        <v>489.90859985351562</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>50</v>
+      </c>
+      <c r="B36" s="0">
+        <v>55.314907073974609</v>
+      </c>
+      <c r="C36" s="0">
+        <v>475.32748413085937</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>51</v>
+      </c>
+      <c r="B37" s="0">
+        <v>56.624397277832031</v>
+      </c>
+      <c r="C37" s="0">
+        <v>500.489990234375</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>52</v>
+      </c>
+      <c r="B38" s="0">
+        <v>57.416702270507813</v>
+      </c>
+      <c r="C38" s="0">
+        <v>493.97067260742188</v>
       </c>
     </row>
   </sheetData>

--- a/exercise/hfc_enumerators.xlsx
+++ b/exercise/hfc_enumerators.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4350"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -130,716 +130,240 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="127">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1313,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,99 +849,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:XFD1048576">
-    <cfRule type="expression" dxfId="126" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>$D1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1456,12 +980,12 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="124" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1491,7 +1015,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:XFD1048576">
-    <cfRule type="expression" dxfId="123" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -1506,7 +1030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="122" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1536,7 +1060,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:XFD1048576">
-    <cfRule type="expression" dxfId="121" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -1551,7 +1075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="120" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1564,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
@@ -1579,12 +1103,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576 BEX2:XFD1048576">
-    <cfRule type="expression" dxfId="119" priority="88">
+    <cfRule type="expression" dxfId="51" priority="88">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1 BEX1:XFD1">
-    <cfRule type="expression" dxfId="118" priority="89">
+    <cfRule type="expression" dxfId="50" priority="89">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1601,12 +1125,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:BEW1048576">
-    <cfRule type="expression" dxfId="111" priority="76">
+    <cfRule type="expression" dxfId="49" priority="76">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:BEW1">
-    <cfRule type="expression" dxfId="110" priority="77">
+    <cfRule type="expression" dxfId="48" priority="77">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1623,12 +1147,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="expression" dxfId="99" priority="73">
+    <cfRule type="expression" dxfId="47" priority="73">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="97" priority="74">
+    <cfRule type="expression" dxfId="46" priority="74">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1645,12 +1169,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="expression" dxfId="95" priority="70">
+    <cfRule type="expression" dxfId="45" priority="70">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="93" priority="71">
+    <cfRule type="expression" dxfId="44" priority="71">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1667,12 +1191,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="expression" dxfId="87" priority="64">
+    <cfRule type="expression" dxfId="43" priority="64">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="85" priority="65">
+    <cfRule type="expression" dxfId="42" priority="65">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1689,12 +1213,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="expression" dxfId="83" priority="61">
+    <cfRule type="expression" dxfId="41" priority="61">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="81" priority="62">
+    <cfRule type="expression" dxfId="40" priority="62">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1711,12 +1235,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="expression" dxfId="79" priority="58">
+    <cfRule type="expression" dxfId="39" priority="58">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="77" priority="59">
+    <cfRule type="expression" dxfId="38" priority="59">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1733,12 +1257,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="75" priority="55">
+    <cfRule type="expression" dxfId="37" priority="55">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="73" priority="56">
+    <cfRule type="expression" dxfId="36" priority="56">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1755,12 +1279,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I1048576">
-    <cfRule type="expression" dxfId="71" priority="52">
+    <cfRule type="expression" dxfId="35" priority="52">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="expression" dxfId="69" priority="53">
+    <cfRule type="expression" dxfId="34" priority="53">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1777,12 +1301,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="expression" dxfId="67" priority="49">
+    <cfRule type="expression" dxfId="33" priority="49">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="65" priority="50">
+    <cfRule type="expression" dxfId="32" priority="50">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1799,12 +1323,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K1048576">
-    <cfRule type="expression" dxfId="63" priority="46">
+    <cfRule type="expression" dxfId="31" priority="46">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="61" priority="47">
+    <cfRule type="expression" dxfId="30" priority="47">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1821,12 +1345,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="expression" dxfId="59" priority="43">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="expression" dxfId="57" priority="44">
+    <cfRule type="expression" dxfId="28" priority="44">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1843,12 +1367,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="expression" dxfId="55" priority="40">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="53" priority="41">
+    <cfRule type="expression" dxfId="26" priority="41">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1865,12 +1389,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N1048576">
-    <cfRule type="expression" dxfId="51" priority="37">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="expression" dxfId="49" priority="38">
+    <cfRule type="expression" dxfId="24" priority="38">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1887,12 +1411,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O1048576">
-    <cfRule type="expression" dxfId="47" priority="34">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="expression" dxfId="45" priority="35">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1909,12 +1433,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1931,12 +1455,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q1048576">
-    <cfRule type="expression" dxfId="39" priority="28">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="18" priority="29">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1953,12 +1477,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="expression" dxfId="35" priority="25">
+    <cfRule type="expression" dxfId="17" priority="25">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="expression" dxfId="33" priority="26">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1975,12 +1499,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S1048576">
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="14" priority="23">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1997,12 +1521,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T1048576">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="expression" dxfId="25" priority="20">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2019,12 +1543,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U1048576">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2041,12 +1565,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2063,12 +1587,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W1048576">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2085,12 +1609,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X1048576">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2107,12 +1631,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y1048576">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2129,12 +1653,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$A1 &lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
